--- a/Supplemental/SuppTables/Supplementary_Tables.xlsx
+++ b/Supplemental/SuppTables/Supplementary_Tables.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Conno\Desktop\gitmaster\TransSpecificPolymorphisms_Daphnia\Supplemental\SuppTables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Conno\Desktop\gitmaster\SharedPolymorphismsDaphnia\Supplemental\SuppTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CA9F17-6054-4549-8BCA-684C37D8CDD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B67BF3-E0CA-43A3-8C7B-3546BFE26828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SuppTable_1" sheetId="1" r:id="rId1"/>
     <sheet name="SuppTable_2" sheetId="2" r:id="rId2"/>
-    <sheet name="SuppTable_3" sheetId="3" r:id="rId3"/>
+    <sheet name="SuppTable_3" sheetId="6" r:id="rId3"/>
     <sheet name="SuppTable_4" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8309" uniqueCount="4058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8296" uniqueCount="4052">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -12116,42 +12116,12 @@
     <t>Synonymous</t>
   </si>
   <si>
-    <t>Trans-specific</t>
-  </si>
-  <si>
     <t>Fixed</t>
   </si>
   <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Mean_Mapped_Reads</t>
-  </si>
-  <si>
-    <t>Median_Mapped_Reads</t>
-  </si>
-  <si>
-    <t>Mean_Properly_Paired_Reads</t>
-  </si>
-  <si>
-    <t>Median_Properly_Paired_Reads</t>
-  </si>
-  <si>
-    <t>LCI_Mapped_Reads</t>
-  </si>
-  <si>
-    <t>UCI_Mapped_Reads</t>
-  </si>
-  <si>
-    <t>LCI_Properly_Paired_Reads</t>
-  </si>
-  <si>
-    <t>UCI_Properly_Paired_Reads</t>
-  </si>
-  <si>
-    <t>Daphnia pulex x Daphnia pulicaria</t>
-  </si>
-  <si>
     <t>Private NAm. D. pulex</t>
   </si>
   <si>
@@ -12173,15 +12143,6 @@
     <t>BIC</t>
   </si>
   <si>
-    <t>M.0</t>
-  </si>
-  <si>
-    <t>M.1</t>
-  </si>
-  <si>
-    <t>M.2</t>
-  </si>
-  <si>
     <t>Deviance</t>
   </si>
   <si>
@@ -12191,54 +12152,53 @@
     <t>DF</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-value</t>
-    </r>
-  </si>
-  <si>
     <t>Parameters</t>
   </si>
   <si>
     <t>Log-likelihood</t>
   </si>
   <si>
-    <t>Models</t>
-  </si>
-  <si>
-    <t>Activity ~ 1 + Hour + (1|Individual) +(1|Day)</t>
-  </si>
-  <si>
-    <t>Activity ~ Genotype + Hour + (1|Individual) +(1|Day)</t>
-  </si>
-  <si>
-    <t>Activity ~ Genotype*Light + Hour + (1|Individual) +(1|Day)</t>
+    <t>Shared Polymorphism</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>y ~ Hour + (1 | Sample) + (1 | Clone) + (1 | Block)</t>
+  </si>
+  <si>
+    <t>y ~ Hour + Light + (1 | Sample) + (1 | Clone) + (1 | Block)</t>
+  </si>
+  <si>
+    <t>y ~ Hour + Light + Genotype + (1 | Sample) + (1 | Clone) + (1 | Block)</t>
+  </si>
+  <si>
+    <t>y ~ Hour + Light * Genotype + (1 | Sample) + (1 | Clone) + (1 | Block)</t>
+  </si>
+  <si>
+    <t>y ~ Hour * Light * Genotype + (1 | Sample) + (1 | Clone) + (1 | Block)</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>&lt;2e-16</t>
+  </si>
+  <si>
+    <t>y ~ Light + (1 | Block) + (1 | Clone)</t>
+  </si>
+  <si>
+    <t>y ~ Light + Genotype + (1 | Block) + (1 | Clone)</t>
+  </si>
+  <si>
+    <t>y ~ Light * Genotype + (1 | Block) + (1 | Clone)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12369,15 +12329,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -12724,9 +12675,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -13084,7 +13039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A194" activeCellId="2" sqref="A106:XFD106 A111:XFD111 A194:XFD194"/>
     </sheetView>
   </sheetViews>
@@ -47204,7 +47159,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -47217,7 +47172,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4040</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -47254,7 +47209,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4038</v>
+        <v>4028</v>
       </c>
       <c r="B3">
         <v>12077</v>
@@ -47286,7 +47241,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4039</v>
+        <v>4029</v>
       </c>
       <c r="B4">
         <v>18899</v>
@@ -47318,7 +47273,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4026</v>
+        <v>4040</v>
       </c>
       <c r="B5">
         <v>8514</v>
@@ -47350,7 +47305,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4027</v>
+        <v>4026</v>
       </c>
       <c r="B6">
         <v>186</v>
@@ -47382,7 +47337,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>4041</v>
+        <v>4031</v>
       </c>
       <c r="B7">
         <v>39365</v>
@@ -47414,7 +47369,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>4028</v>
+        <v>4027</v>
       </c>
       <c r="B8">
         <v>79041</v>
@@ -47446,7 +47401,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>4042</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -47483,7 +47438,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>4038</v>
+        <v>4028</v>
       </c>
       <c r="B12">
         <v>3066</v>
@@ -47515,7 +47470,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>4039</v>
+        <v>4029</v>
       </c>
       <c r="B13">
         <v>8173</v>
@@ -47547,7 +47502,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>4026</v>
+        <v>4040</v>
       </c>
       <c r="B14">
         <v>1357</v>
@@ -47579,7 +47534,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>4028</v>
+        <v>4027</v>
       </c>
       <c r="B15">
         <f>SUM(B12:B14)</f>
@@ -47624,281 +47579,154 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33FF099-8238-419D-8601-887F699BAFCA}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4047</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4049</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4051</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>4047</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4038</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>4034</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>4039</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>4035</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>4036</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>4037</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>4041</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>166790</v>
+      </c>
+      <c r="D7">
+        <v>166807</v>
+      </c>
+      <c r="E7">
+        <v>-83390</v>
+      </c>
+      <c r="F7">
+        <v>166780</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>166794</v>
+      </c>
+      <c r="D8">
+        <v>166818</v>
+      </c>
+      <c r="E8">
+        <v>-83390</v>
+      </c>
+      <c r="F8">
+        <v>166780</v>
+      </c>
+      <c r="G8">
+        <v>4.0500000000000001E-2</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>0.97989999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>160953</v>
+      </c>
+      <c r="D9">
+        <v>160990</v>
+      </c>
+      <c r="E9">
+        <v>-80465</v>
+      </c>
+      <c r="F9">
+        <v>160931</v>
+      </c>
+      <c r="G9">
+        <v>5849.7184999999999</v>
+      </c>
+      <c r="H9">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4029</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4030</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4031</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4032</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4033</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4034</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4035</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4036</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>9953108</v>
-      </c>
-      <c r="D2">
-        <v>8724118</v>
-      </c>
-      <c r="E2">
-        <v>3795705</v>
-      </c>
-      <c r="F2">
-        <v>3533870</v>
-      </c>
-      <c r="G2">
-        <v>5761223</v>
-      </c>
-      <c r="H2">
-        <v>14144992</v>
-      </c>
-      <c r="I2">
-        <v>2501443</v>
-      </c>
-      <c r="J2">
-        <v>5089967</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C3">
-        <v>10006728</v>
-      </c>
-      <c r="D3">
-        <v>9312432</v>
-      </c>
-      <c r="E3">
-        <v>5160501</v>
-      </c>
-      <c r="F3">
-        <v>6961375</v>
-      </c>
-      <c r="G3">
-        <v>7900375</v>
-      </c>
-      <c r="H3">
-        <v>12113080</v>
-      </c>
-      <c r="I3">
-        <v>924235.7</v>
-      </c>
-      <c r="J3">
-        <v>9396767</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>11025295</v>
-      </c>
-      <c r="D4">
-        <v>10560557</v>
-      </c>
-      <c r="E4">
-        <v>6646411</v>
-      </c>
-      <c r="F4">
-        <v>5313014</v>
-      </c>
-      <c r="G4">
-        <v>10428710</v>
-      </c>
-      <c r="H4">
-        <v>11621879</v>
-      </c>
-      <c r="I4">
-        <v>6116820</v>
-      </c>
-      <c r="J4">
-        <v>7176002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C5">
-        <v>13556966</v>
-      </c>
-      <c r="D5">
-        <v>12366574</v>
-      </c>
-      <c r="E5">
-        <v>10248755</v>
-      </c>
-      <c r="F5">
-        <v>9305782</v>
-      </c>
-      <c r="G5">
-        <v>13091790</v>
-      </c>
-      <c r="H5">
-        <v>14022141</v>
-      </c>
-      <c r="I5">
-        <v>9841315</v>
-      </c>
-      <c r="J5">
-        <v>10656194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4037</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C6">
-        <v>15718397</v>
-      </c>
-      <c r="D6">
-        <v>15462948</v>
-      </c>
-      <c r="E6">
-        <v>6040094</v>
-      </c>
-      <c r="F6">
-        <v>4919960</v>
-      </c>
-      <c r="G6">
-        <v>7962825</v>
-      </c>
-      <c r="H6">
-        <v>23473969</v>
-      </c>
-      <c r="I6">
-        <v>1321868</v>
-      </c>
-      <c r="J6">
-        <v>10758320</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>251</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>12482874</v>
-      </c>
-      <c r="D7">
-        <v>11245244</v>
-      </c>
-      <c r="E7">
-        <v>4904314</v>
-      </c>
-      <c r="F7">
-        <v>4184376</v>
-      </c>
-      <c r="G7">
-        <v>8169513</v>
-      </c>
-      <c r="H7">
-        <v>16796235</v>
-      </c>
-      <c r="I7">
-        <v>2950601</v>
-      </c>
-      <c r="J7">
-        <v>6858028</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>251</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C8">
-        <v>24862755</v>
-      </c>
-      <c r="D8">
-        <v>27587948</v>
-      </c>
-      <c r="E8">
-        <v>13698836</v>
-      </c>
-      <c r="F8">
-        <v>12810469</v>
-      </c>
-      <c r="G8">
-        <v>17848204</v>
-      </c>
-      <c r="H8">
-        <v>31877306</v>
-      </c>
-      <c r="I8">
-        <v>6418663</v>
-      </c>
-      <c r="J8">
-        <v>20979009</v>
+      <c r="I9" s="2" t="s">
+        <v>4048</v>
       </c>
     </row>
   </sheetData>
@@ -47908,156 +47736,233 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D2B69E-E24F-4A70-B42D-6F07085891AD}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>4054</v>
+        <v>4047</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4042</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4043</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4044</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>4045</v>
       </c>
-      <c r="B2" t="s">
-        <v>4055</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>4046</v>
       </c>
-      <c r="B3" t="s">
-        <v>4056</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>4047</v>
       </c>
-      <c r="B4" t="s">
-        <v>4057</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4054</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4052</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4043</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>4044</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>4053</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>4038</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4034</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>4039</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>4035</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>4036</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>4037</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>4041</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>1365908</v>
+      </c>
+      <c r="D9">
+        <v>1365969</v>
+      </c>
+      <c r="E9">
+        <v>-682949</v>
+      </c>
+      <c r="F9">
+        <v>1365898</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>1365902</v>
+      </c>
+      <c r="D10">
+        <v>1365988</v>
+      </c>
+      <c r="E10">
+        <v>-682944</v>
+      </c>
+      <c r="F10">
+        <v>1365888</v>
+      </c>
+      <c r="G10">
+        <v>9.7957999999999998</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>7.4619999999999999E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>1365906</v>
+      </c>
+      <c r="D11">
+        <v>1366017</v>
+      </c>
+      <c r="E11">
+        <v>-682944</v>
+      </c>
+      <c r="F11">
+        <v>1365888</v>
+      </c>
+      <c r="G11">
+        <v>0.24660000000000001</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>0.88399099999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>1365913</v>
+      </c>
+      <c r="D12">
+        <v>1366073</v>
+      </c>
+      <c r="E12">
+        <v>-682943</v>
+      </c>
+      <c r="F12">
+        <v>1365887</v>
+      </c>
+      <c r="G12">
+        <v>0.86409999999999998</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>0.92964999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>1364879</v>
+      </c>
+      <c r="D13">
+        <v>1365138</v>
+      </c>
+      <c r="E13">
+        <v>-682419</v>
+      </c>
+      <c r="F13">
+        <v>1364837</v>
+      </c>
+      <c r="G13">
+        <v>1049.4627</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>4048</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>4049</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>4050</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>4051</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>4045</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>-880.78</v>
-      </c>
-      <c r="D7">
-        <v>-855.3</v>
-      </c>
-      <c r="E7">
-        <v>445.39</v>
-      </c>
-      <c r="F7">
-        <v>-890.78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>4046</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>-878.46</v>
-      </c>
-      <c r="D8">
-        <v>-842.8</v>
-      </c>
-      <c r="E8">
-        <v>446.23</v>
-      </c>
-      <c r="F8">
-        <v>-892.46</v>
-      </c>
-      <c r="G8">
-        <v>1.6849000000000001</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>0.43065100000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>4047</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>-886.63</v>
-      </c>
-      <c r="D9">
-        <v>-835.68</v>
-      </c>
-      <c r="E9">
-        <v>453.31</v>
-      </c>
-      <c r="F9">
-        <v>-906.63</v>
-      </c>
-      <c r="G9">
-        <v>14.1678</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>2.6849999999999999E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>